--- a/Multi-taxa_data/PLITs/3-Clean_data/mean_rel_cov_site.xlsx
+++ b/Multi-taxa_data/PLITs/3-Clean_data/mean_rel_cov_site.xlsx
@@ -417,37 +417,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.38</v>
       </c>
       <c r="D2">
         <v>0.01</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,100 +456,100 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H3">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I3">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="G4">
+        <v>0.13</v>
+      </c>
+      <c r="H4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>ZP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.38</v>
+        <v>0.71</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.55</v>
+        <v>0.26</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E6">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -597,94 +597,94 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I6">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>YO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E7">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="F8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -768,100 +768,100 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YO</t>
+          <t>AW</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
         <v>0.01</v>
       </c>
       <c r="E11">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H11">
         <v>0.02</v>
       </c>
       <c r="I11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="K11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.16</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.02</v>
+      </c>
+      <c r="I12">
+        <v>0.09</v>
+      </c>
+      <c r="J12">
+        <v>0.02</v>
+      </c>
+      <c r="K12">
         <v>0.04</v>
-      </c>
-      <c r="E12">
-        <v>0.2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.01</v>
-      </c>
-      <c r="I12">
-        <v>0.02</v>
-      </c>
-      <c r="J12">
-        <v>0.02</v>
-      </c>
-      <c r="K12">
-        <v>0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZP</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.71</v>
+        <v>0.28</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="J13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
